--- a/config/kingdom_special.xlsx
+++ b/config/kingdom_special.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CORNUCOPIA</t>
+          <t>Cornucopia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CORNUCOPIA_GUILDS</t>
+          <t>Cornucopia Guilds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>Update Pack</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DARK_AGES</t>
+          <t>Dark Ages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOCTURNE</t>
+          <t>Nocturne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RISING_SUN</t>
+          <t>Rising Sun</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
